--- a/medicine/Psychotrope/Dalmore/Dalmore.xlsx
+++ b/medicine/Psychotrope/Dalmore/Dalmore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Dalmore est une distillerie de whisky située dans la région des Highlands, au nord de l'Écosse.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fondée en 1839 par Alexander Matheson, la distillerie est située sur les rives du Cromarty Firth, face à la fertile Black Isle.
 </t>
@@ -543,7 +557,9 @@
           <t>Toponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">The Dalmore, vient du gaélique écossais qui signifie « Le grand champ » ; Dail signifie « terrain » et mor « grand ».
 </t>
@@ -574,12 +590,49 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La plus grande partie de la production est utilisée dans les assemblages Whyte &amp; MacKay et The Claymore.
 Le reste dans les single malts The Dalmore, qui est l'une des rares distilleries à commercialiser de très vieux malts (50 ou 62 ans).
-Embouteillages officiels
-The Dalmore Vintage 2006
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dalmore</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dalmore</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Embouteillages officiels</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Dalmore Vintage 2006
 The Dalmore Valour 40 %
 The Dalmore Regalis 40 %
 The Dalmore Luceo 40 %
